--- a/public/uploads/file_nhap/danh-sach-dac-diem.xlsx
+++ b/public/uploads/file_nhap/danh-sach-dac-diem.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24931"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ADMIN\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\thuctap_cuoikhoa\public\uploads\file_nhap\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2A25BF1-3395-4176-8F6D-6B01DFC6EC00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DAAE772-799A-48A3-8839-31827CA22D3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2928" yWindow="2928" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
   <si>
     <t>id</t>
   </si>
@@ -42,34 +42,80 @@
   </si>
   <si>
     <t>sanpham_id</t>
+  </si>
+  <si>
+    <t>CÔNG NGHỆ</t>
+  </si>
+  <si>
+    <t>Ứng dụng công nghệ: AI, Big Data; Blockchain; IoT…</t>
+  </si>
+  <si>
+    <t>AN TOÀN</t>
+  </si>
+  <si>
+    <t>Đảm bảo tính an toàn dữ liệu cao nhất</t>
+  </si>
+  <si>
+    <t>GIẢI PHÁP</t>
+  </si>
+  <si>
+    <t>Đa dạng bộ giải pháp cho phòng hội chẩn/ phòng khám/ phòng họp/…. </t>
+  </si>
+  <si>
+    <t>MÔ HÌNH TRIỂN KHAI</t>
+  </si>
+  <si>
+    <t>Triển khai trên nền tảng Cloud, triển khai nhanh chóng, cài đặt và vận hành đơn giản, tập trung</t>
+  </si>
+  <si>
+    <t>KINH NGHIỆM</t>
+  </si>
+  <si>
+    <t>Viettel đã triển khai kết nối ~2.500 cơ sở y tế toàn quốc</t>
+  </si>
+  <si>
+    <t>Ứng dụng trí tuệ nhân tạo (AI), các công nghệ phân tích dữ liệu lớn phục vụ nghiên cứu và xây dựng các ứng dụng CNTT y tế.</t>
+  </si>
+  <si>
+    <t>BẢO MẬT</t>
+  </si>
+  <si>
+    <t>Hệ thống được tích hợp bảo mật hạ tầng, ứng dụng, dữ liệu nhiều lớp, phân quyền chặt chẽ tránh lộ lọt thông tin.</t>
+  </si>
+  <si>
+    <t>TRIỂN KHAI</t>
+  </si>
+  <si>
+    <t>Triển khai cài đặt đơn giản, nhanh chóng; Giao diện thân thiện, dễ sử dụng.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="163"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -77,29 +123,19 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -404,69 +440,148 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="2" max="2" width="18.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="39.33203125" customWidth="1"/>
     <col min="4" max="4" width="10.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
+    <row r="2" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>11</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2">
+        <v>224</v>
+      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
+      <c r="A3">
+        <v>12</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>13</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>14</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>15</v>
+      </c>
+      <c r="B6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>16</v>
+      </c>
+      <c r="B7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>17</v>
+      </c>
+      <c r="B8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>18</v>
+      </c>
+      <c r="B9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9">
+        <v>225</v>
+      </c>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>